--- a/Data/EUDA/Cannabis_detaille/frequence_conso_jamais_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/frequence_conso_jamais_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Daily.jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>4 to 6 days per week.jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4 to 6 days per week</t>
+          <t>2 to 3 days per week.jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2 to 3 days per week</t>
+          <t>Once a week or less.jamais.jamais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Once a week or less</t>
+          <t>Not used in the last 30 days.jamais.jamais</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not used in the last 30 days</t>
+          <t>Not known / missing.jamais.jamais</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -487,27 +482,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>198</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="G2" t="n">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
-      </c>
-      <c r="I2" t="n">
         <v>666</v>
       </c>
     </row>
@@ -518,27 +510,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>971</v>
       </c>
       <c r="C3" t="n">
-        <v>971</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="E3" t="n">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="F3" t="n">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="G3" t="n">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="H3" t="n">
-        <v>142</v>
-      </c>
-      <c r="I3" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -549,27 +538,24 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -580,25 +566,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
         <v>56</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="G5" t="n">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
-      </c>
-      <c r="I5" t="n">
         <v>288</v>
       </c>
     </row>
@@ -609,27 +592,24 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
         <v>251</v>
       </c>
     </row>
@@ -640,27 +620,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>172</v>
       </c>
       <c r="C7" t="n">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H7" t="n">
-        <v>87</v>
-      </c>
-      <c r="I7" t="n">
         <v>539</v>
       </c>
     </row>
@@ -671,25 +648,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>903</v>
       </c>
       <c r="C8" t="n">
-        <v>903</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E8" t="n">
-        <v>193</v>
-      </c>
-      <c r="F8" t="n">
         <v>104</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>76</v>
+      </c>
       <c r="H8" t="n">
-        <v>76</v>
-      </c>
-      <c r="I8" t="n">
         <v>1493</v>
       </c>
     </row>
@@ -700,19 +674,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
         <v>11</v>
       </c>
     </row>
@@ -723,27 +694,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="n">
         <v>36</v>
       </c>
     </row>
@@ -760,7 +728,6 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,27 +736,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>4371</v>
       </c>
       <c r="C12" t="n">
-        <v>4371</v>
+        <v>1406</v>
       </c>
       <c r="D12" t="n">
-        <v>1406</v>
+        <v>1845</v>
       </c>
       <c r="E12" t="n">
-        <v>1845</v>
+        <v>1345</v>
       </c>
       <c r="F12" t="n">
-        <v>1345</v>
+        <v>3613</v>
       </c>
       <c r="G12" t="n">
-        <v>3613</v>
+        <v>2401</v>
       </c>
       <c r="H12" t="n">
-        <v>2401</v>
-      </c>
-      <c r="I12" t="n">
         <v>14981</v>
       </c>
     </row>
@@ -800,27 +764,24 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>307</v>
       </c>
       <c r="C13" t="n">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F13" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G13" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
         <v>684</v>
       </c>
     </row>
@@ -831,27 +792,24 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="F14" t="n">
-        <v>278</v>
+        <v>1274</v>
       </c>
       <c r="G14" t="n">
-        <v>1274</v>
+        <v>62</v>
       </c>
       <c r="H14" t="n">
-        <v>62</v>
-      </c>
-      <c r="I14" t="n">
         <v>1895</v>
       </c>
     </row>
@@ -862,27 +820,24 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>809</v>
       </c>
       <c r="C15" t="n">
-        <v>809</v>
+        <v>145</v>
       </c>
       <c r="D15" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" t="n">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="G15" t="n">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="H15" t="n">
-        <v>47</v>
-      </c>
-      <c r="I15" t="n">
         <v>1463</v>
       </c>
     </row>
@@ -893,27 +848,24 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>1225</v>
       </c>
       <c r="C16" t="n">
-        <v>1225</v>
+        <v>340</v>
       </c>
       <c r="D16" t="n">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="E16" t="n">
-        <v>464</v>
+        <v>247</v>
       </c>
       <c r="F16" t="n">
-        <v>247</v>
+        <v>787</v>
       </c>
       <c r="G16" t="n">
-        <v>787</v>
+        <v>1131</v>
       </c>
       <c r="H16" t="n">
-        <v>1131</v>
-      </c>
-      <c r="I16" t="n">
         <v>4194</v>
       </c>
     </row>
@@ -924,27 +876,24 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="n">
         <v>165</v>
       </c>
     </row>
@@ -955,19 +904,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
       <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -978,27 +924,24 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>12</v>
-      </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1009,25 +952,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
         <v>9</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1038,27 +978,24 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>1876</v>
       </c>
       <c r="C21" t="n">
-        <v>1876</v>
+        <v>329</v>
       </c>
       <c r="D21" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="G21" t="n">
-        <v>174</v>
+        <v>1204</v>
       </c>
       <c r="H21" t="n">
-        <v>1204</v>
-      </c>
-      <c r="I21" t="n">
         <v>3625</v>
       </c>
     </row>
@@ -1075,7 +1012,6 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1084,27 +1020,24 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>309</v>
       </c>
       <c r="C23" t="n">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="D23" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E23" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F23" t="n">
         <v>56</v>
       </c>
       <c r="G23" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
-      </c>
-      <c r="I23" t="n">
         <v>648</v>
       </c>
     </row>
@@ -1115,27 +1048,24 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>411</v>
       </c>
       <c r="C24" t="n">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E24" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="H24" t="n">
-        <v>209</v>
-      </c>
-      <c r="I24" t="n">
         <v>896</v>
       </c>
     </row>
@@ -1146,27 +1076,24 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E25" t="n">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="F25" t="n">
-        <v>225</v>
+        <v>1025</v>
       </c>
       <c r="G25" t="n">
-        <v>1025</v>
+        <v>43</v>
       </c>
       <c r="H25" t="n">
-        <v>43</v>
-      </c>
-      <c r="I25" t="n">
         <v>1606</v>
       </c>
     </row>
@@ -1177,27 +1104,24 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
-      </c>
-      <c r="I26" t="n">
         <v>250</v>
       </c>
     </row>
@@ -1208,27 +1132,24 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1239,27 +1160,24 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>5768</v>
       </c>
       <c r="C28" t="n">
-        <v>5768</v>
+        <v>451</v>
       </c>
       <c r="D28" t="n">
-        <v>451</v>
+        <v>610</v>
       </c>
       <c r="E28" t="n">
-        <v>610</v>
+        <v>431</v>
       </c>
       <c r="F28" t="n">
-        <v>431</v>
+        <v>1160</v>
       </c>
       <c r="G28" t="n">
-        <v>1160</v>
+        <v>109</v>
       </c>
       <c r="H28" t="n">
-        <v>109</v>
-      </c>
-      <c r="I28" t="n">
         <v>8529</v>
       </c>
     </row>
@@ -1276,7 +1194,6 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1285,27 +1202,24 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>427</v>
       </c>
       <c r="C30" t="n">
-        <v>427</v>
+        <v>125</v>
       </c>
       <c r="D30" t="n">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
         <v>669</v>
       </c>
     </row>
@@ -1318,7 +1232,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1333,7 +1246,6 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1348,7 +1260,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1363,7 +1274,6 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1378,7 +1288,6 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1393,7 +1302,6 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
